--- a/input/companies_test.xlsx
+++ b/input/companies_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProjects\company-description\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD329F37-8DE9-43AC-A772-AA258DE06E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB220DE3-2137-4DAF-A3E5-8CD623B396B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="-396" windowWidth="23016" windowHeight="12336" xr2:uid="{36112B11-FB1C-42E5-9462-4C8EEC29C988}"/>
+    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" xr2:uid="{36112B11-FB1C-42E5-9462-4C8EEC29C988}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>CBS</t>
   </si>
@@ -45,6 +45,63 @@
   </si>
   <si>
     <t>Cellnex</t>
+  </si>
+  <si>
+    <t>Fox Sports</t>
+  </si>
+  <si>
+    <t>Fox Sports Latin America</t>
+  </si>
+  <si>
+    <t>Foxtel</t>
+  </si>
+  <si>
+    <t>France 24</t>
+  </si>
+  <si>
+    <t>France Televisions</t>
+  </si>
+  <si>
+    <t>Fraunhofer Institute Fokus</t>
+  </si>
+  <si>
+    <t>Fremantle</t>
+  </si>
+  <si>
+    <t>Fuji Television</t>
+  </si>
+  <si>
+    <t>Game Creek Video</t>
+  </si>
+  <si>
+    <t>Gity</t>
+  </si>
+  <si>
+    <t>Global Radio</t>
+  </si>
+  <si>
+    <t>GlobeCast</t>
+  </si>
+  <si>
+    <t>Globosat</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Grupo Globo</t>
+  </si>
+  <si>
+    <t>GTD Grupo</t>
+  </si>
+  <si>
+    <t>GTT Communications</t>
+  </si>
+  <si>
+    <t>Hathway</t>
+  </si>
+  <si>
+    <t>Hayat TV</t>
   </si>
 </sst>
 </file>
@@ -416,19 +473,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3238CE47-101B-4088-9E03-2C955D1305B6}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A2:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
@@ -437,6 +489,106 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/input/companies_test.xlsx
+++ b/input/companies_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProjects\company-description\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB220DE3-2137-4DAF-A3E5-8CD623B396B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F5CBA-37E4-4B92-A59B-ACF48169803F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" xr2:uid="{36112B11-FB1C-42E5-9462-4C8EEC29C988}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{36112B11-FB1C-42E5-9462-4C8EEC29C988}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,72 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>CBS</t>
-  </si>
-  <si>
-    <t>CBS Studios International</t>
-  </si>
-  <si>
-    <t>Cellnex</t>
-  </si>
-  <si>
-    <t>Fox Sports</t>
-  </si>
-  <si>
-    <t>Fox Sports Latin America</t>
-  </si>
-  <si>
-    <t>Foxtel</t>
-  </si>
-  <si>
-    <t>France 24</t>
-  </si>
-  <si>
-    <t>France Televisions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Fraunhofer Institute Fokus</t>
   </si>
   <si>
-    <t>Fremantle</t>
-  </si>
-  <si>
-    <t>Fuji Television</t>
-  </si>
-  <si>
-    <t>Game Creek Video</t>
-  </si>
-  <si>
     <t>Gity</t>
-  </si>
-  <si>
-    <t>Global Radio</t>
-  </si>
-  <si>
-    <t>GlobeCast</t>
-  </si>
-  <si>
-    <t>Globosat</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>Grupo Globo</t>
-  </si>
-  <si>
-    <t>GTD Grupo</t>
-  </si>
-  <si>
-    <t>GTT Communications</t>
-  </si>
-  <si>
-    <t>Hathway</t>
-  </si>
-  <si>
-    <t>Hayat TV</t>
   </si>
 </sst>
 </file>
@@ -473,17 +413,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3238CE47-101B-4088-9E03-2C955D1305B6}">
-  <dimension ref="A2:A23"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -491,106 +431,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
